--- a/Projects/CCBZA/Data/Template_QSR_November.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">MERCHANDISING</t>
   </si>
   <si>
-    <t xml:space="preserve">Merchandising</t>
+    <t xml:space="preserve">Merchandise</t>
   </si>
   <si>
     <t xml:space="preserve">SOS, Planogram</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">BONUS POINTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler</t>
+    <t xml:space="preserve">Bonus Coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Activation</t>
@@ -262,27 +262,27 @@
     <t xml:space="preserve">SSD IC Availability of: 300ml PET, 400ml CAN (CC, SP, FA, ST)</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability SKU facing And</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90338052, 5449000234582, 90377235, 40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (CZ), 400ml can (CZ, SZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149, 5449000256928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) BA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability SKU facing Or</t>
   </si>
   <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90338052, 5449000234582, 90377235, 40822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (CZ), 400ml can (CZ, SZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability SKU facing And</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149, 5449000256928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) BA</t>
-  </si>
-  <si>
     <t xml:space="preserve">90492853</t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">90331725, 90492488, 54490482, 90492501, 54490345, 5449000665195, 5449000665744</t>
   </si>
   <si>
-    <t xml:space="preserve">Stills IC available in (330ml/500ml) Cappie (Cold)</t>
+    <t xml:space="preserve">Stills IC available in (330ml/500ml) Cappy (Cold)</t>
   </si>
   <si>
     <t xml:space="preserve">SSD IC Availability of: 400ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">Stills Availab: Min 3 Stills 200l/250/330/440/500 (BA,VA,BA,BAP,JJ,FZ,Tiser,PA,PP,Monster,Cappie</t>
+    <t xml:space="preserve">Stills Availab: Min 3 Stills 200l/250/330/440/500 (BA,VA,BA,BAP,JJ,FZ,Tiser,PA,PP,Monster,Cappy</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
@@ -563,7 +563,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,10 +608,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,11 +628,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,7 +656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,21 +759,21 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +836,7 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1081,7 +1073,7 @@
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1151,20 +1143,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="57.9627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="32.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.7209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1189,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1209,10 +1201,10 @@
       <c r="D2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -1244,21 +1236,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5209302325581"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,87 +1308,87 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="Q2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="10"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="Q4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="Q5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="Q7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="Q8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="Q9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="Q10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="15"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="Q14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="16"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="Q15" s="10"/>
     </row>
   </sheetData>
@@ -1417,21 +1410,22 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,7 +1461,7 @@
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1476,19 +1470,19 @@
       <c r="D2" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1497,13 +1491,13 @@
       <c r="D3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1511,7 +1505,7 @@
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1520,19 +1514,19 @@
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1541,19 +1535,19 @@
       <c r="D5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1562,13 +1556,13 @@
       <c r="D6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1576,7 +1570,7 @@
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1585,21 +1579,21 @@
       <c r="D7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1608,10 +1602,10 @@
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1619,7 +1613,7 @@
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1628,13 +1622,13 @@
       <c r="D9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1642,7 +1636,7 @@
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1651,13 +1645,13 @@
       <c r="D10" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1665,7 +1659,7 @@
       <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1674,13 +1668,13 @@
       <c r="D11" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1688,7 +1682,7 @@
       <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1697,13 +1691,13 @@
       <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1711,7 +1705,7 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1720,13 +1714,13 @@
       <c r="D13" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1734,7 +1728,7 @@
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1743,13 +1737,13 @@
       <c r="D14" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1757,7 +1751,7 @@
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1766,10 +1760,10 @@
       <c r="D15" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1793,31 +1787,32 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.8046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.758139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="59.9302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="33.3488372093023"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1831,7 @@
       <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1880,672 +1875,672 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="17"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="17"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="12" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="17"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="12" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="12" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="12" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="17"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="12" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="17"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="12" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="17"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="12" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="17"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="12" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="17"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="10" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="12" t="s">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="12" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="17"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="24"/>
-      <c r="K12" s="11" t="n">
+      <c r="G12" s="11"/>
+      <c r="H12" s="22"/>
+      <c r="K12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="12" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="12" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" s="11" t="n">
+      <c r="E14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="K14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="12" t="s">
+      <c r="N14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="K14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="K15" s="11" t="n">
+      <c r="H15" s="22"/>
+      <c r="K15" s="10" t="n">
         <v>4</v>
       </c>
       <c r="L15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="12" t="s">
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="S15" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="12" t="s">
+      <c r="N16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="12" t="s">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="S16" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2571,29 +2566,30 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,13 +2652,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2677,7 +2673,7 @@
       <c r="G2" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="10" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -2692,13 +2688,13 @@
       <c r="L2" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -2709,13 +2705,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -2730,14 +2726,14 @@
       <c r="G3" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="n">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
@@ -2772,25 +2768,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="8" t="s">

--- a/Projects/CCBZA/Data/Template_QSR_November.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,8 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -79,7 +81,7 @@
     <t xml:space="preserve">Merchandise</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS, Planogram</t>
+    <t xml:space="preserve">SOS,Planogram</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -307,28 +309,34 @@
     <t xml:space="preserve">Stills IC available in (330ml/500ml) PP</t>
   </si>
   <si>
-    <t xml:space="preserve">5060466513204, 5060466513211, 5060466513112, 5060466514669, 5060466513174, 5060466514690, 5060466513051, 5060466514607, 5060466513082, 5060466514638</t>
+    <t xml:space="preserve">5060466513204,5060466513211,5060466513112,5060466514669,5060466513174,5060466514690,5060466513051,5060466514607,5060466513082,5060466514638</t>
   </si>
   <si>
     <t xml:space="preserve">Stills IC available in (330ml/500ml) PA</t>
   </si>
   <si>
-    <t xml:space="preserve">90331725, 90492488, 54490482, 90492501, 54490345, 5449000665195, 5449000665744</t>
+    <t xml:space="preserve">90331725,90492488,54490482,90492501,54490345,5449000665195,5449000665744</t>
   </si>
   <si>
     <t xml:space="preserve">Stills IC available in (330ml/500ml) Cappy (Cold)</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000256041,5449000255945,5449000255723,5449000195036,90490538,5449000045249,5449000256010,5449000255914,5449000045232,5449000255693,5449000256065</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD IC Availability of: 400ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000664822, 5449000664839, 5449000664846, 5449000664853</t>
+    <t xml:space="preserve">Availability SKU facing And Group Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000664686, 5449000234643, 5449000664723 | 5449000664754 | 5449000664747, 5449000664808, 5449000664822 | 5449000664839, 5449000664846 | 5449000664853 | 5449000664884</t>
   </si>
   <si>
     <t xml:space="preserve">SSD IC Diets Availab of Min 4 SSD 400mlCan/PET (CZ,Coke Life,Coke Light,Sprite Zero,Stoney Zero)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000256928, 5449000257451, 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792</t>
+    <t xml:space="preserve">5449000256928, 5449000257451 | 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
@@ -340,7 +348,7 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER</t>
+    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER, CAPPY</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
@@ -355,13 +363,13 @@
     <t xml:space="preserve">SSD IC Availab:440ml PET (CC, SP, FA, ST),  300ml Can (CC,SP,FA,ST,SPAR,SCHW)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000256812, 5449000257253, 5449000257017, 5449000257109, 5449000257055, 5449000257468, 5449000257543, 5449000257635, 5449000257697, 5449000257666</t>
+    <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723 | 5449000664754 | 5449000664747, 5449000664808, 5449000256805, 5449000257222, 5449000257000 | 5449000257093| 5449000257031, 5449000257420, 5449000257536 | 5449000257628 | 5449000257598, 5449000257710, 5449000257680, 5449000257659</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Diets Availab: Min 4 SSD 440PET/300Can (CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761, 5449000256898, 5449000256973, 5449000256867, 5449000257062, 5449000257352, 5449000257178</t>
+    <t xml:space="preserve">5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761, 5449000256898, 5449000256973, 5449000256867, 5449000257352, 5449000257178</t>
   </si>
   <si>
     <t xml:space="preserve">Condition 1 - Numerator</t>
@@ -430,10 +438,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,13 +465,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -477,7 +478,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,14 +505,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,7 +558,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,15 +579,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,11 +599,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,11 +611,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,39 +631,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,10 +686,10 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -736,7 +703,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -759,24 +726,24 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -822,21 +789,21 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -849,9 +816,9 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -870,13 +837,13 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -897,13 +864,13 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -924,13 +891,13 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -951,13 +918,13 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="G7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -978,13 +945,13 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -992,7 +959,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1005,17 +972,17 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1032,17 +999,17 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1059,21 +1026,21 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1086,17 +1053,17 @@
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1113,13 +1080,13 @@
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1143,71 +1110,71 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="288.702325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="35.8093023255814"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1228,169 +1195,86 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.76744186046512"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="14"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="15"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="Q15" s="10"/>
-    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1408,364 +1292,407 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1784,764 +1711,705 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.758139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="61.6558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.0511627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="65.3441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.3209302325581"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="9" customFormat="true" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10" t="n">
+      <c r="H2" s="16"/>
+      <c r="K2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="n">
+      <c r="G3" s="9"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10" t="n">
+      <c r="G4" s="9"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10" t="n">
+      <c r="H5" s="16"/>
+      <c r="K5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10" t="n">
+      <c r="H6" s="16"/>
+      <c r="K6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="n">
+      <c r="H7" s="16"/>
+      <c r="K7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10" t="n">
+      <c r="H8" s="16"/>
+      <c r="K8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="n">
+      <c r="H9" s="16"/>
+      <c r="K9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="11" t="s">
+      <c r="Q9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10" t="n">
+      <c r="F10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="K10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10" t="n">
+      <c r="F11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="K11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="K12" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="10" t="n">
+      <c r="F14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="K14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="K15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="11" t="s">
+      <c r="N15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="S15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="F16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="G16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="L16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="11" t="s">
+      <c r="N16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="S16" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="K14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="K15" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2566,180 +2434,179 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="288.702325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="10" t="n">
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="10" t="n">
+      <c r="K2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="O2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="F3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="0" t="s">
+      <c r="O3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2766,49 +2633,49 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Projects/CCBZA/Data/Template_QSR_November.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -726,21 +727,21 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,15 +1116,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="288.702325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="297.562790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="36.7953488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,22 +1204,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,16 +1301,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.3581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,33 +1714,33 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.0511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="65.3441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.7581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="67.3162790697675"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.4279069767442"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2217,7 @@
       </c>
       <c r="H12" s="16"/>
       <c r="K12" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>2</v>
@@ -2439,25 +2440,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="288.702325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="297.562790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,16 +2636,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA/Data/Template_QSR_November.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR_November.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,9 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -79,7 +82,7 @@
     <t xml:space="preserve">Merchandise</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS, Planogram</t>
+    <t xml:space="preserve">SOS,Planogram</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -307,28 +310,34 @@
     <t xml:space="preserve">Stills IC available in (330ml/500ml) PP</t>
   </si>
   <si>
-    <t xml:space="preserve">5060466513204, 5060466513211, 5060466513112, 5060466514669, 5060466513174, 5060466514690, 5060466513051, 5060466514607, 5060466513082, 5060466514638</t>
+    <t xml:space="preserve">5060466513204,5060466513211,5060466513112,5060466514669,5060466513174,5060466514690,5060466513051,5060466514607,5060466513082,5060466514638</t>
   </si>
   <si>
     <t xml:space="preserve">Stills IC available in (330ml/500ml) PA</t>
   </si>
   <si>
-    <t xml:space="preserve">90331725, 90492488, 54490482, 90492501, 54490345, 5449000665195, 5449000665744</t>
+    <t xml:space="preserve">90331725,90492488,54490482,90492501,54490345,5449000665195,5449000665744</t>
   </si>
   <si>
     <t xml:space="preserve">Stills IC available in (330ml/500ml) Cappy (Cold)</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000256041,5449000255945,5449000255723,5449000195036,90490538,5449000045249,5449000256010,5449000255914,5449000045232,5449000255693,5449000256065</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD IC Availability of: 400ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000664822, 5449000664839, 5449000664846, 5449000664853</t>
+    <t xml:space="preserve">Availability SKU facing And Group Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000664686, 5449000234643, 5449000664723 | 5449000664754 | 5449000664747, 5449000664808, 5449000664822 | 5449000664839, 5449000664846 | 5449000664853 | 5449000664884</t>
   </si>
   <si>
     <t xml:space="preserve">SSD IC Diets Availab of Min 4 SSD 400mlCan/PET (CZ,Coke Life,Coke Light,Sprite Zero,Stoney Zero)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000256928, 5449000257451, 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792</t>
+    <t xml:space="preserve">5449000256928, 5449000257451 | 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
@@ -340,7 +349,7 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER</t>
+    <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, TISER, POWERADE, PLAY, MONSTER, CAPPY</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
@@ -355,13 +364,13 @@
     <t xml:space="preserve">SSD IC Availab:440ml PET (CC, SP, FA, ST),  300ml Can (CC,SP,FA,ST,SPAR,SCHW)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000256812, 5449000257253, 5449000257017, 5449000257109, 5449000257055, 5449000257468, 5449000257543, 5449000257635, 5449000257697, 5449000257666</t>
+    <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723 | 5449000664754 | 5449000664747, 5449000664808, 5449000256805, 5449000257222, 5449000257000 | 5449000257093| 5449000257031, 5449000257420, 5449000257536 | 5449000257628 | 5449000257598, 5449000257710, 5449000257680, 5449000257659</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Diets Availab: Min 4 SSD 440PET/300Can (CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761, 5449000256898, 5449000256973, 5449000256867, 5449000257062, 5449000257352, 5449000257178</t>
+    <t xml:space="preserve">5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761, 5449000256898, 5449000256973, 5449000256867, 5449000257352, 5449000257178</t>
   </si>
   <si>
     <t xml:space="preserve">Condition 1 - Numerator</t>
@@ -430,10 +439,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,13 +466,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -477,7 +479,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,14 +506,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,7 +559,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,15 +580,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,11 +600,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,11 +612,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,39 +632,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,10 +687,10 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -736,7 +704,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -760,23 +728,23 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -822,21 +790,21 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -849,9 +817,9 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -870,13 +838,13 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -897,13 +865,13 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -924,13 +892,13 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -951,13 +919,13 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="G7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -978,13 +946,13 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -992,7 +960,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1005,17 +973,17 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1032,17 +1000,17 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1059,21 +1027,21 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1086,17 +1054,17 @@
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1113,13 +1081,13 @@
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1143,71 +1111,71 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="297.562790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="36.7953488372093"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1228,169 +1196,86 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.89302325581395"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="14"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="15"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="Q15" s="10"/>
-    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1408,364 +1293,407 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.3581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1784,764 +1712,705 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.758139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="61.6558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.7581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="67.3162790697675"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.4279069767442"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="9" customFormat="true" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10" t="n">
+      <c r="H2" s="16"/>
+      <c r="K2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="n">
+      <c r="G3" s="9"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10" t="n">
+      <c r="G4" s="9"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10" t="n">
+      <c r="H5" s="16"/>
+      <c r="K5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10" t="n">
+      <c r="H6" s="16"/>
+      <c r="K6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="n">
+      <c r="H7" s="16"/>
+      <c r="K7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10" t="n">
+      <c r="H8" s="16"/>
+      <c r="K8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="n">
+      <c r="H9" s="16"/>
+      <c r="K9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="11" t="s">
+      <c r="Q9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10" t="n">
+      <c r="F10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="K10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10" t="n">
+      <c r="F11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="K11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="K12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="10" t="n">
+      <c r="F14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="K14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="K15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="11" t="s">
+      <c r="N15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="S15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="F16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="G16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="L16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="11" t="s">
+      <c r="N16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="S16" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="K14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="K15" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2566,180 +2435,179 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="297.562790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="10" t="n">
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="10" t="n">
+      <c r="K2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="O2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="F3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="0" t="s">
+      <c r="O3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2766,49 +2634,49 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
